--- a/data/trans_camb/P12A1_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_1_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,12</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,04</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,78; 8,41</t>
+          <t>-4,03; 0,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 22,88</t>
+          <t>-2,32; 3,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,98; 20,89</t>
+          <t>-3,07; 2,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 11,46</t>
+          <t>-1,84; 2,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,72; 9,13</t>
+          <t>-4,79; 1,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,08; 17,76</t>
+          <t>-3,85; 0,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 5,26</t>
+          <t>-3,71; 0,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 10,97</t>
+          <t>-2,75; 2,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 11,34</t>
+          <t>-2,34; 2,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 1,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 0,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 1,48</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 1,59</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 1,44</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 1,05</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-59,32%</t>
+          <t>-56,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,45%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-35,39%</t>
+          <t>-40,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,6%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-54,34%</t>
+          <t>-22,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,22%</t>
+          <t>-67,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-56,41%</t>
+          <t>-67,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,71%</t>
+          <t>-10,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-22,5%</t>
+          <t>-35,46%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-59,73%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-61,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-24,79%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-27,08%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-18,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-43,84%</t>
         </is>
       </c>
     </row>
@@ -826,12 +964,42 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 321,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 335,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,43</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,9</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,83</t>
+          <t>5,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,85</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,5</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,38</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,57</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,78</t>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,54</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 59,3</t>
+          <t>-0,48; 14,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 61,95</t>
+          <t>-0,27; 16,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 17,66</t>
+          <t>-0,45; 22,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 16,07</t>
+          <t>-21,92; 0,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 16,72</t>
+          <t>-1,5; 3,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 0,0</t>
+          <t>-2,73; 0,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 46,34</t>
+          <t>-2,36; 1,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 46,48</t>
+          <t>0,36; 8,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 2,27</t>
+          <t>-6,38; 2,11</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0,66; 6,22</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 7,44</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 8,7</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 13,66</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-15,3; -0,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 3,37</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>150,36%</t>
+          <t>214,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>134,15%</t>
+          <t>265,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-43,82%</t>
+          <t>362,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-48,5%</t>
+          <t>-80,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,29%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-60,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>-20,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>350,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-75,75%</t>
+          <t>-43,67%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>112,86%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>162,96%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>360,08%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-66,96%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>414,34%</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1265,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,18; —</t>
+          <t>-63,3; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,32; —</t>
+          <t>-55,98; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1037,15 +1295,45 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-49,77; 906,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,36; 863,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-90,17; 123,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-60,67; 2345,08</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-44,56; 2468,59</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>21,0; 2527,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-97,55; -9,38</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,09</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-11,46</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,66</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>18,88</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,14</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 35,68</t>
+          <t>-6,46; 6,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 69,68</t>
+          <t>-4,92; 9,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-58,94; 24,48</t>
+          <t>-9,48; 4,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-18,05; 25,49</t>
+          <t>-2,44; 9,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 33,67</t>
+          <t>-2,61; 8,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,44; 28,26</t>
+          <t>-1,82; 3,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 21,16</t>
+          <t>-1,12; 4,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 45,88</t>
+          <t>-1,84; 4,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,66; 18,42</t>
+          <t>-4,44; 2,84</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,77; 2,38</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 3,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 5,23</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 3,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 4,81</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 5,02</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,39%</t>
+          <t>23,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>77,98%</t>
+          <t>66,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-34,25%</t>
+          <t>26,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52,96%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,3%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>54,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>39,04%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-5,29%</t>
+          <t>-4,45%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-25,31%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61,01%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>32,36%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>22,3%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>20,79%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,88; —</t>
+          <t>-90,51; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,43; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,4; 206,61</t>
+          <t>-55,37; 400,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,34; 295,97</t>
+          <t>-84,01; 663,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 221,79</t>
+          <t>-50,55; 331,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-60,33; 135,36</t>
+          <t>-38,01; 409,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-37,53; 300,95</t>
+          <t>-57,28; 474,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,26; 119,62</t>
+          <t>-77,15; 157,9</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-73,64; 87,43</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-77,46; 223,89</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-60,89; 332,49</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-64,57; 255,02</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-47,43; 182,6</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-52,22; 204,14</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 9,19</t>
+          <t>-1,54; 1,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 10,04</t>
+          <t>-1,44; 1,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 10,27</t>
+          <t>-1,72; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 14,82</t>
+          <t>-0,77; 2,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 16,8</t>
+          <t>-4,43; 1,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 11,71</t>
+          <t>-0,31; 2,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 8,28</t>
+          <t>-0,07; 2,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 9,67</t>
+          <t>0,55; 5,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 10,16</t>
+          <t>-3,91; 2,18</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 4,21</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 1,27</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 1,69</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,03; 2,83</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 1,84</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 1,83</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>-14,44%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>-41,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>244,06%</t>
+          <t>129,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>334,26%</t>
+          <t>-48,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>142,66%</t>
+          <t>222,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>69,14%</t>
+          <t>346,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>119,72%</t>
+          <t>717,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>78,45%</t>
+          <t>-8,42%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>186,16%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>60,36%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>128,26%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>194,41%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>9,11%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>18,57%</t>
         </is>
       </c>
     </row>
@@ -1469,17 +1967,47 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,57; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-60,26; 922,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-79,41; —</t>
+          <t>-89,58; 195,55</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-66,45; 1032,02</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-44,24; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-70,68; 282,0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-72,64; 363,9</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4,26</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,83</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>5,72</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 3,62</t>
+          <t>-1,6; 0,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 0,0</t>
+          <t>-2,21; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 3,45</t>
+          <t>-0,81; 2,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,96</t>
+          <t>-1,35; 3,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 3,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,74; 15,22</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 6,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 0,0</t>
+          <t>0,0; 3,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 6,46</t>
+          <t>-2,05; 0,76</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 0,18</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 1,32</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 0,0</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 1,76</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 1,92</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,73; 1,31</t>
         </is>
       </c>
     </row>
@@ -1602,7 +2190,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-40,82%</t>
+          <t>-16,16%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1612,37 +2200,67 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-43,92%</t>
+          <t>72,25%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>97,53%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>117,58%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="J22" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>111,84%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-27,63%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-75,94%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>194,4%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>145,34%</t>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>207,03%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>42,46%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-23,46%</t>
         </is>
       </c>
     </row>
@@ -1698,6 +2316,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1722,37 +2370,67 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
+      <c r="J24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>4,93</t>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -1775,22 +2453,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,45</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 2,8</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +2483,37 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,27; 13,03</t>
+          <t>0,0; 2,29</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 0,5</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,28</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 0,97</t>
         </is>
       </c>
     </row>
@@ -1828,37 +2536,67 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>6,72%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-71,19%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-50,35%</t>
         </is>
       </c>
     </row>
@@ -1914,6 +2652,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 12,91</t>
+          <t>-1,05; 2,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 19,04</t>
+          <t>-0,49; 3,51</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 4,43</t>
+          <t>-0,62; 3,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,5</t>
+          <t>-2,96; 1,35</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 6,37</t>
+          <t>-0,87; 2,16</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 8,97</t>
+          <t>-0,58; 0,88</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 7,54</t>
+          <t>-0,41; 1,03</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 10,62</t>
+          <t>0,27; 2,38</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 5,04</t>
+          <t>-1,6; 0,74</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 0,94</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,52; 1,25</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 1,75</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 2,65</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 0,67</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 1,07</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-24,45%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>-11,14%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>35,44%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>62,15%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>26,84%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>62,2%</t>
+          <t>132,39%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>-17,71%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-7,28%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>31,87%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>66,9%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>100,64%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>11,82%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-74,33; 236,65</t>
+          <t>-72,77; 306,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 365,11</t>
+          <t>-48,51; 426,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-81,48; 110,63</t>
+          <t>-51,63; 407,55</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-45,4; 166,49</t>
+          <t>-76,1; 105,06</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 185,19</t>
+          <t>-47,35; 258,31</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 250,05</t>
+          <t>-48,63; 187,52</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 147,17</t>
+          <t>-37,32; 221,32</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 206,86</t>
+          <t>6,5; 426,01</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 104,26</t>
+          <t>-59,42; 55,6</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-52,98; 84,59</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-41,44; 157,81</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-29,58; 227,06</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 314,48</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-57,05; 42,71</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-34,98; 92,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
